--- a/biology/Botanique/Porphyra/Porphyra.xlsx
+++ b/biology/Botanique/Porphyra/Porphyra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Porphyra (du grec porphyra, « pourpre ») est un genre d'algues rouges de la famille des Bangiaceae, comprenant environ 70 espèces[1]. Elle vit sur l'estran, typiquement entre la zone intertidale supérieure et l'étage supralittoral des mers froides et tempérées, notamment près des laisses de haute mer où elle est capable de supporter de longues émersions[2]. En Asie du Sud-Est, elle est utilisée comme varech pour produire le nori (au Japon) et le gim (en) (en Corée). Elle y est aussi cultivée et transformée pour être consommée directement pour l'alimentation humaine[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Porphyra (du grec porphyra, « pourpre ») est un genre d'algues rouges de la famille des Bangiaceae, comprenant environ 70 espèces. Elle vit sur l'estran, typiquement entre la zone intertidale supérieure et l'étage supralittoral des mers froides et tempérées, notamment près des laisses de haute mer où elle est capable de supporter de longues émersions. En Asie du Sud-Est, elle est utilisée comme varech pour produire le nori (au Japon) et le gim (en) (en Corée). Elle y est aussi cultivée et transformée pour être consommée directement pour l'alimentation humaine.
 Le cycle de vie de l'algue comporte une alternance de deux générations : le gamétophyte macroscopique correspond à l'algue visible sur les rochers, et le sporophyte microscopique et filamenteux avait été décrit sous un autre nom : Conchocelis (Conchocelis rosea), qui est donc un synonyme de Porphyra. 
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (20 mai 2012)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (20 mai 2012) :
 Porphyra akasakae A.Miura
 Porphyra angusta Okamura &amp; Ueda
 Porphyra argentinensis M.L.Piriz
@@ -589,7 +603,7 @@
 Porphyra vulgaris Kützing (Statut incertain)
 Porphyra woolhouseae Harvey
 Porphyra yamadae Yoshida
-Selon Catalogue of Life                                   (20 mai 2012)[5] :
+Selon Catalogue of Life                                   (20 mai 2012) :
 Porphyra abbottiae
 Porphyra acanthophora
 Porphyra adamsiae
@@ -727,7 +741,7 @@
 Porphyra woolhouseae
 Porphyra yamadae
 Porphyra yezoensis
-Selon ITIS      (20 mai 2012)[6] :
+Selon ITIS      (20 mai 2012) :
 Porphyra abbottae
 Porphyra amplissima
 Porphyra cuneiformis
@@ -761,7 +775,7 @@
 Porphyra umbilicalis
 Porphyra variegata
 Porphyra yezoensis
-Selon NCBI  (20 mai 2012)[7] :
+Selon NCBI  (20 mai 2012) :
 Porphyra amplissima
 Porphyra capensis
 Porphyra conwayae
@@ -798,7 +812,7 @@
 Porphyra umbilicalis
 Porphyra virididentata
 Porphyra yamadae
-Selon World Register of Marine Species                               (20 mai 2012)[8] :
+Selon World Register of Marine Species                               (20 mai 2012) :
 Porphyra abbottiae V.Krishnamurthy, 1978
 Porphyra acanthophora E.C.Oliveira &amp; Coll, 1975
 Porphyra adamsiae W.A.Nelson, 1993
